--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2737.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2737.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160364620989805</v>
+        <v>0.9473599791526794</v>
       </c>
       <c r="B1">
-        <v>2.406577239800336</v>
+        <v>1.99790096282959</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.950685024261475</v>
       </c>
       <c r="D1">
-        <v>2.367118252231196</v>
+        <v>3.582872152328491</v>
       </c>
       <c r="E1">
-        <v>1.219480986675951</v>
+        <v>1.974338173866272</v>
       </c>
     </row>
   </sheetData>
